--- a/server/templates/excel/Inverters.xlsx
+++ b/server/templates/excel/Inverters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/45a89f5ee15fb5d9/Desktop/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PJs\ChecksheetsApp\server\templates\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{C3291BC9-CACA-4FDC-B3C0-296129E8FDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3D24924-3859-4CB8-A29A-A7EB6A5C733D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAA7D64-31FB-4933-B0DA-9B6641CA3FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>Preventive Maintenance Check List</t>
   </si>
@@ -51,18 +51,12 @@
     <t xml:space="preserve"> Date of Last Revision:</t>
   </si>
   <si>
-    <t>Floridas Moloto</t>
-  </si>
-  <si>
     <t>Plant:</t>
   </si>
   <si>
     <t>Witkop</t>
   </si>
   <si>
-    <t>Crew Members:</t>
-  </si>
-  <si>
     <t>Date:</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Pass / Fail (P/F)</t>
   </si>
   <si>
     <t>Observations</t>
@@ -130,9 +121,6 @@
     <t>Page 1 of 1</t>
   </si>
   <si>
-    <t>Monthly Inspection for CT building Inverters (PM_06)</t>
-  </si>
-  <si>
     <t>Record all operating voltage and current reading via the front display panel</t>
   </si>
   <si>
@@ -160,25 +148,58 @@
     <t>PM-006</t>
   </si>
   <si>
-    <t>Moshe</t>
-  </si>
-  <si>
-    <t>Lerato, Itu, Prince &amp; Tshepo</t>
-  </si>
-  <si>
-    <t>Tshepo</t>
-  </si>
-  <si>
-    <t>20/05/2025</t>
-  </si>
-  <si>
     <t>INV1</t>
   </si>
   <si>
     <t>INV2</t>
   </si>
   <si>
-    <t>Prince</t>
+    <t>{Value}</t>
+  </si>
+  <si>
+    <t>Monthly Inspection for CT building Inverters</t>
+  </si>
+  <si>
+    <t>{checklist_made_by}</t>
+  </si>
+  <si>
+    <t>{last_revision_approved_by}</t>
+  </si>
+  <si>
+    <t>{last_revision_date}</t>
+  </si>
+  <si>
+    <t>{observations}</t>
+  </si>
+  <si>
+    <t>Maintenance team:</t>
+  </si>
+  <si>
+    <t>{maintenance_team}</t>
+  </si>
+  <si>
+    <t>{inspection_date}</t>
+  </si>
+  <si>
+    <t>{started_at}</t>
+  </si>
+  <si>
+    <t>{finished_at}</t>
+  </si>
+  <si>
+    <t>{location}</t>
+  </si>
+  <si>
+    <t>{inspected_by}</t>
+  </si>
+  <si>
+    <t>{approved_by}</t>
+  </si>
+  <si>
+    <t>{final_observations}</t>
+  </si>
+  <si>
+    <t>Pass / Fail</t>
   </si>
 </sst>
 </file>
@@ -863,9 +884,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1029,6 +1047,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1041,6 +1065,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1065,19 +1095,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1429,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z288"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1456,16 +1477,16 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="94" t="s">
+      <c r="F1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="96"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="95"/>
     </row>
     <row r="2" spans="1:15" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1489,23 +1510,23 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="1:15" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="102"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="101"/>
     </row>
     <row r="4" spans="1:15" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
@@ -1529,82 +1550,88 @@
       <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:15" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="103" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="103" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="106">
-        <v>45111</v>
-      </c>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="107"/>
+      <c r="A5" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="102" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="103"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="106"/>
     </row>
     <row r="6" spans="1:15" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>9</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="108" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="108"/>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="109"/>
+        <v>40</v>
+      </c>
+      <c r="F6" s="107" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="108"/>
     </row>
     <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="30"/>
+        <v>10</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>43</v>
+      </c>
       <c r="G7" s="30"/>
       <c r="H7" s="27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
+      <c r="K7" s="28" t="s">
+        <v>44</v>
+      </c>
       <c r="L7" s="28"/>
       <c r="M7" s="31"/>
     </row>
     <row r="8" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
       <c r="E8" s="29"/>
       <c r="F8" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="28"/>
+        <v>12</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>45</v>
+      </c>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
@@ -1647,716 +1674,740 @@
     </row>
     <row r="11" spans="1:15" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="127"/>
+      <c r="L11" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="111" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="123" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="48"/>
+      <c r="M11" s="47"/>
     </row>
     <row r="12" spans="1:15" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="L12" s="124"/>
-      <c r="M12" s="48"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="117"/>
+      <c r="M12" s="47"/>
     </row>
     <row r="13" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="43"/>
-      <c r="B13" s="51">
+      <c r="B13" s="50">
         <v>1</v>
       </c>
-      <c r="C13" s="88" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="48"/>
+      <c r="C13" s="87" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="47"/>
     </row>
     <row r="14" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
-      <c r="B14" s="54">
+      <c r="B14" s="53">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C14" s="91" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="48"/>
+      <c r="C14" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="47"/>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
-      <c r="B15" s="54">
+      <c r="B15" s="53">
         <v>1.2</v>
       </c>
-      <c r="C15" s="115" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="48"/>
+      <c r="C15" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="47"/>
     </row>
     <row r="16" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
-      <c r="B16" s="51">
+      <c r="B16" s="50">
         <v>2</v>
       </c>
-      <c r="C16" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="48"/>
+      <c r="C16" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="47"/>
     </row>
     <row r="17" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
-      <c r="B17" s="51">
+      <c r="B17" s="50">
         <v>3</v>
       </c>
-      <c r="C17" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="48"/>
+      <c r="C17" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="47"/>
     </row>
     <row r="18" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
-      <c r="B18" s="51">
+      <c r="B18" s="50">
         <v>4</v>
       </c>
-      <c r="C18" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="58"/>
+      <c r="C18" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="57"/>
     </row>
     <row r="19" spans="1:14" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
-      <c r="B19" s="51">
+      <c r="B19" s="50">
         <v>5</v>
       </c>
-      <c r="C19" s="118" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="87"/>
+      <c r="C19" s="121" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="47"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
-      <c r="B20" s="51">
+      <c r="B20" s="50">
         <v>6</v>
       </c>
-      <c r="C20" s="118" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="119"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="58"/>
+      <c r="C20" s="121" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="57"/>
     </row>
     <row r="21" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="48"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="47"/>
     </row>
     <row r="22" spans="1:14" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
-      <c r="B22" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" s="64"/>
+      <c r="B22" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="63"/>
     </row>
     <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="64"/>
+      <c r="B23" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="63"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="64"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="63"/>
     </row>
     <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="64"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="63"/>
     </row>
     <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="64"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="63"/>
     </row>
     <row r="27" spans="1:14" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
-      <c r="B27" s="121" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="64"/>
+      <c r="B27" s="124" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="63"/>
     </row>
     <row r="28" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
-      <c r="B28" s="122" t="s">
+      <c r="B28" s="125" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="63"/>
+    </row>
+    <row r="29" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="69"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="71"/>
+    </row>
+    <row r="30" spans="1:14" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="73"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="122"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="122"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69" t="s">
+    </row>
+    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="64"/>
-    </row>
-    <row r="29" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="70"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="72"/>
-    </row>
-    <row r="30" spans="1:14" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="73" t="s">
+      <c r="B31" s="73"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="77"/>
+    </row>
+    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="78"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="77" t="s">
         <v>22</v>
-      </c>
-      <c r="B30" s="74"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="78" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="74"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="78"/>
-    </row>
-    <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="78" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="43"/>
-      <c r="M33" s="80"/>
+      <c r="M33" s="79"/>
     </row>
     <row r="34" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="43"/>
-      <c r="M34" s="80"/>
+      <c r="M34" s="79"/>
     </row>
     <row r="35" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="43"/>
-      <c r="M35" s="80"/>
+      <c r="M35" s="79"/>
     </row>
     <row r="36" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="43"/>
-      <c r="M36" s="80"/>
+      <c r="M36" s="79"/>
     </row>
     <row r="37" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>
-      <c r="M37" s="80"/>
+      <c r="M37" s="79"/>
     </row>
     <row r="38" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="43"/>
-      <c r="M38" s="80"/>
+      <c r="M38" s="79"/>
     </row>
     <row r="39" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="43"/>
-      <c r="M39" s="80"/>
+      <c r="M39" s="79"/>
     </row>
     <row r="40" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="43"/>
-      <c r="M40" s="80"/>
+      <c r="M40" s="79"/>
     </row>
     <row r="41" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43"/>
-      <c r="M41" s="80"/>
+      <c r="M41" s="79"/>
     </row>
     <row r="42" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>
-      <c r="M42" s="80"/>
+      <c r="M42" s="79"/>
     </row>
     <row r="43" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
-      <c r="M43" s="80"/>
+      <c r="M43" s="79"/>
     </row>
     <row r="44" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
-      <c r="M44" s="80"/>
+      <c r="M44" s="79"/>
     </row>
     <row r="45" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
-      <c r="M45" s="80"/>
+      <c r="M45" s="79"/>
     </row>
     <row r="46" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
-      <c r="M46" s="80"/>
+      <c r="M46" s="79"/>
     </row>
     <row r="47" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="43"/>
-      <c r="M47" s="80"/>
+      <c r="M47" s="79"/>
     </row>
     <row r="48" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="43"/>
-      <c r="M48" s="80"/>
+      <c r="M48" s="79"/>
     </row>
     <row r="49" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="43"/>
-      <c r="M49" s="80"/>
+      <c r="M49" s="79"/>
     </row>
     <row r="50" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="43"/>
-      <c r="M50" s="80"/>
+      <c r="M50" s="79"/>
     </row>
     <row r="51" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="43"/>
-      <c r="M51" s="80"/>
+      <c r="M51" s="79"/>
     </row>
     <row r="52" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="43"/>
-      <c r="M52" s="80"/>
+      <c r="M52" s="79"/>
     </row>
     <row r="53" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="43"/>
-      <c r="M53" s="80"/>
+      <c r="M53" s="79"/>
     </row>
     <row r="54" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="43"/>
-      <c r="M54" s="80"/>
+      <c r="M54" s="79"/>
     </row>
     <row r="55" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="43"/>
-      <c r="M55" s="80"/>
+      <c r="M55" s="79"/>
     </row>
     <row r="56" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="43"/>
-      <c r="M56" s="80"/>
+      <c r="M56" s="79"/>
     </row>
     <row r="57" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43"/>
-      <c r="M57" s="80"/>
+      <c r="M57" s="79"/>
     </row>
     <row r="58" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="43"/>
-      <c r="M58" s="80"/>
+      <c r="M58" s="79"/>
     </row>
     <row r="59" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="43"/>
-      <c r="M59" s="80"/>
+      <c r="M59" s="79"/>
     </row>
     <row r="60" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="43"/>
-      <c r="M60" s="80"/>
+      <c r="M60" s="79"/>
     </row>
     <row r="61" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="43"/>
-      <c r="M61" s="80"/>
+      <c r="M61" s="79"/>
     </row>
     <row r="62" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43"/>
-      <c r="M62" s="80"/>
+      <c r="M62" s="79"/>
     </row>
     <row r="63" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="43"/>
-      <c r="M63" s="80"/>
+      <c r="M63" s="79"/>
     </row>
     <row r="64" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="43"/>
-      <c r="M64" s="80"/>
+      <c r="M64" s="79"/>
     </row>
     <row r="65" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="43"/>
-      <c r="M65" s="80"/>
+      <c r="M65" s="79"/>
     </row>
     <row r="66" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="43"/>
-      <c r="M66" s="80"/>
+      <c r="M66" s="79"/>
     </row>
     <row r="67" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43"/>
-      <c r="M67" s="80"/>
+      <c r="M67" s="79"/>
     </row>
     <row r="68" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="43"/>
-      <c r="M68" s="80"/>
+      <c r="M68" s="79"/>
     </row>
     <row r="69" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="43"/>
-      <c r="M69" s="80"/>
+      <c r="M69" s="79"/>
     </row>
     <row r="70" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="43"/>
-      <c r="M70" s="80"/>
+      <c r="M70" s="79"/>
     </row>
     <row r="71" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="43"/>
-      <c r="M71" s="80"/>
+      <c r="M71" s="79"/>
     </row>
     <row r="72" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="43"/>
-      <c r="M72" s="80"/>
+      <c r="M72" s="79"/>
     </row>
     <row r="73" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="43"/>
-      <c r="M73" s="80"/>
+      <c r="M73" s="79"/>
     </row>
     <row r="74" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="43"/>
-      <c r="M74" s="80"/>
+      <c r="M74" s="79"/>
     </row>
     <row r="75" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="43"/>
-      <c r="M75" s="80"/>
+      <c r="M75" s="79"/>
     </row>
     <row r="76" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="43"/>
-      <c r="M76" s="80"/>
+      <c r="M76" s="79"/>
     </row>
     <row r="77" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="43"/>
-      <c r="M77" s="80"/>
+      <c r="M77" s="79"/>
     </row>
     <row r="78" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="43"/>
-      <c r="M78" s="80"/>
+      <c r="M78" s="79"/>
     </row>
     <row r="79" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="43"/>
-      <c r="M79" s="80"/>
+      <c r="M79" s="79"/>
     </row>
     <row r="80" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="43"/>
-      <c r="M80" s="80"/>
+      <c r="M80" s="79"/>
     </row>
     <row r="81" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="43"/>
-      <c r="M81" s="80"/>
+      <c r="M81" s="79"/>
     </row>
     <row r="82" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="43"/>
-      <c r="M82" s="80"/>
+      <c r="M82" s="79"/>
     </row>
     <row r="83" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="43"/>
-      <c r="M83" s="80"/>
+      <c r="M83" s="79"/>
     </row>
     <row r="84" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="43"/>
-      <c r="M84" s="80"/>
+      <c r="M84" s="79"/>
     </row>
     <row r="85" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="43"/>
-      <c r="M85" s="80"/>
+      <c r="M85" s="79"/>
     </row>
     <row r="86" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="43"/>
-      <c r="M86" s="80"/>
+      <c r="M86" s="79"/>
     </row>
     <row r="87" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="43"/>
-      <c r="M87" s="80"/>
+      <c r="M87" s="79"/>
     </row>
     <row r="88" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="43"/>
-      <c r="M88" s="80"/>
+      <c r="M88" s="79"/>
     </row>
     <row r="89" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="43"/>
-      <c r="M89" s="80"/>
+      <c r="M89" s="79"/>
     </row>
     <row r="90" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="43"/>
-      <c r="M90" s="80"/>
+      <c r="M90" s="79"/>
     </row>
     <row r="91" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="43"/>
-      <c r="M91" s="80"/>
+      <c r="M91" s="79"/>
     </row>
     <row r="92" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="43"/>
-      <c r="M92" s="80"/>
+      <c r="M92" s="79"/>
     </row>
     <row r="93" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="43"/>
-      <c r="M93" s="80"/>
+      <c r="M93" s="79"/>
     </row>
     <row r="94" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="43"/>
-      <c r="M94" s="80"/>
+      <c r="M94" s="79"/>
     </row>
     <row r="95" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="43"/>
-      <c r="M95" s="80"/>
+      <c r="M95" s="79"/>
     </row>
     <row r="96" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="43"/>
-      <c r="M96" s="80"/>
+      <c r="M96" s="79"/>
     </row>
     <row r="97" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="43"/>
-      <c r="M97" s="80"/>
+      <c r="M97" s="79"/>
     </row>
     <row r="98" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="43"/>
-      <c r="M98" s="80"/>
+      <c r="M98" s="79"/>
     </row>
     <row r="99" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="43"/>
-      <c r="M99" s="80"/>
+      <c r="M99" s="79"/>
     </row>
     <row r="100" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="43"/>
-      <c r="M100" s="80"/>
+      <c r="M100" s="79"/>
     </row>
     <row r="101" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="43"/>
-      <c r="M101" s="80"/>
+      <c r="M101" s="79"/>
     </row>
     <row r="102" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="43"/>
-      <c r="M102" s="80"/>
+      <c r="M102" s="79"/>
     </row>
     <row r="103" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="43"/>
-      <c r="M103" s="80"/>
+      <c r="M103" s="79"/>
     </row>
     <row r="104" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="43"/>
-      <c r="M104" s="80"/>
+      <c r="M104" s="79"/>
     </row>
     <row r="105" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="43"/>
-      <c r="M105" s="80"/>
+      <c r="M105" s="79"/>
     </row>
     <row r="106" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="43"/>
-      <c r="M106" s="80"/>
+      <c r="M106" s="79"/>
     </row>
     <row r="107" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="43"/>
-      <c r="M107" s="80"/>
+      <c r="M107" s="79"/>
     </row>
     <row r="108" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="43"/>
-      <c r="M108" s="80"/>
+      <c r="M108" s="79"/>
     </row>
     <row r="109" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="43"/>
-      <c r="M109" s="80"/>
+      <c r="M109" s="79"/>
     </row>
     <row r="110" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="43"/>
-      <c r="M110" s="80"/>
+      <c r="M110" s="79"/>
     </row>
     <row r="111" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="43"/>
     </row>
     <row r="112" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="43"/>
-      <c r="M112" s="81"/>
+      <c r="M112" s="80"/>
     </row>
     <row r="113" spans="1:26" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="43"/>
-      <c r="M113" s="81"/>
+      <c r="M113" s="80"/>
     </row>
     <row r="114" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="43"/>
-      <c r="M114" s="82"/>
-    </row>
-    <row r="115" spans="1:26" s="84" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="83"/>
+      <c r="M114" s="81"/>
+    </row>
+    <row r="115" spans="1:26" s="83" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="82"/>
       <c r="B115" s="15"/>
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
@@ -2369,10 +2420,10 @@
       <c r="K115" s="15"/>
       <c r="L115" s="15"/>
       <c r="M115" s="15"/>
-      <c r="Y115" s="85"/>
-      <c r="Z115" s="86"/>
-    </row>
-    <row r="116" spans="1:26" s="84" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Y115" s="84"/>
+      <c r="Z115" s="85"/>
+    </row>
+    <row r="116" spans="1:26" s="83" customFormat="1" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B116" s="15"/>
       <c r="C116" s="15"/>
       <c r="D116" s="15"/>
@@ -2384,8 +2435,8 @@
       <c r="J116" s="15"/>
       <c r="K116" s="15"/>
       <c r="L116" s="15"/>
-      <c r="Y116" s="85"/>
-      <c r="Z116" s="85"/>
+      <c r="Y116" s="84"/>
+      <c r="Z116" s="84"/>
     </row>
     <row r="117" spans="1:26" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="15"/>
@@ -2608,7 +2659,7 @@
     <row r="287" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="288" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="C17:I17"/>
     <mergeCell ref="C19:I19"/>
     <mergeCell ref="B27:F27"/>
@@ -2630,6 +2681,7 @@
     <mergeCell ref="C11:I12"/>
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="C15:I15"/>
+    <mergeCell ref="J11:K11"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nombre del Representante Legal de la Interventoría o Director de Proyecto." sqref="M112:M113 B28 H28:K28" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
